--- a/svmx/test_lab/test_cases/analytics/an_excleData/FTF_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/FTF_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Account</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Site</t>
-  </si>
-  <si>
-    <t>a1Jq0000001fK4a</t>
-  </si>
-  <si>
-    <t>01tq0000001jh3s</t>
   </si>
   <si>
     <t>a0Nq0000003PBZS</t>
@@ -214,8 +208,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -277,7 +277,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -296,6 +296,9 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -314,6 +317,9 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,16 +635,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -647,60 +653,60 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" s="5">
         <v>43020.416666666664</v>
@@ -709,10 +715,10 @@
         <v>43020.458333333336</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1">
         <v>30</v>
@@ -723,54 +729,54 @@
     </row>
     <row r="3" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" s="6">
         <v>43020.416666666664</v>
@@ -781,7 +787,7 @@
     </row>
     <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M6" s="7"/>
     </row>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/FTF_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/FTF_data.xlsx
@@ -53,9 +53,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>a0Nq0000003PBZS</t>
-  </si>
-  <si>
     <t>System.Today()</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>Case case_3= new Case (Status = 'Closed',Origin='Phone' );insert case_3 ;</t>
+  </si>
+  <si>
+    <t>a0Nq0000003PKUcEAO</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,16 +635,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -653,60 +653,60 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2" s="5">
         <v>43020.416666666664</v>
@@ -715,10 +715,10 @@
         <v>43020.458333333336</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="P2" s="1">
         <v>30</v>
@@ -729,54 +729,54 @@
     </row>
     <row r="3" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="6">
         <v>43020.416666666664</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M6" s="7"/>
     </row>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/FTF_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/FTF_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Account</t>
   </si>
@@ -83,28 +83,7 @@
     <t>SVMXC__Service_Request__c SR_1 = new SVMXC__Service_Request__c(SVMXC__Status__c = 'Open' );insert SR_1 ;</t>
   </si>
   <si>
-    <t>a1Jq0000001faAI</t>
-  </si>
-  <si>
-    <t>01tq0000001jhI0</t>
-  </si>
-  <si>
-    <t>a0Nq0000003PBEa</t>
-  </si>
-  <si>
-    <t>SVMXC__Service_Request__c SR_1 = new SVMXC__Service_Request__c(SVMXC__Status__c = 'Closed', SVMXC__Priority__c = 'High' );insert SR_1 ;</t>
-  </si>
-  <si>
     <t>001q000000hmXhAAAU</t>
-  </si>
-  <si>
-    <t>001q000000hmfgoAAA</t>
-  </si>
-  <si>
-    <t>a1Zq0000000EJNA</t>
-  </si>
-  <si>
-    <t>001q000000hmj2V</t>
   </si>
   <si>
     <t>WDStartDate</t>
@@ -598,7 +577,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,36 +635,36 @@
         <v>16</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -715,10 +694,10 @@
         <v>43020.458333333336</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="P2" s="1">
         <v>30</v>
@@ -727,41 +706,18 @@
         <v>42999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -773,7 +729,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
@@ -787,7 +743,7 @@
     </row>
     <row r="6" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7"/>
     </row>

--- a/svmx/test_lab/test_cases/analytics/an_excleData/FTF_data.xlsx
+++ b/svmx/test_lab/test_cases/analytics/an_excleData/FTF_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/sahi_pro/userdata/scripts/Sahi_Project/svmx/test_lab/test_cases/analytics/an_excleData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/sahi_pro/userdata/scripts/Sahi_Project_Lightning/svmx/test_lab/test_cases/analytics/an_excleData/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
